--- a/entrega 2 - simio model/dias_aserradero_numero.xlsx
+++ b/entrega 2 - simio model/dias_aserradero_numero.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\simio\entrega 2 - simio model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\simio\entrega 2 - simio model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,17 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Dia1</t>
+  </si>
+  <si>
+    <t>Dia2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,48 +512,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,49 +865,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>3</v>
-      </c>
-      <c r="B1">
-        <v>3</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -904,10 +915,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,12 +926,12 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -931,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,15 +963,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -968,15 +979,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -984,26 +995,26 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1035,20 +1046,20 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1064,7 +1075,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1072,7 +1083,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1088,34 +1099,34 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1123,12 +1134,12 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1136,15 +1147,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -1152,18 +1163,18 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,52 +1190,52 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -1232,55 +1243,55 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1288,18 +1299,18 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1307,23 +1318,23 @@
         <v>1</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,23 +1342,23 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1355,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1363,23 +1374,23 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1387,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1395,23 +1406,23 @@
         <v>1</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1424,23 +1435,23 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -1448,18 +1459,18 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,23 +1478,23 @@
         <v>7</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1491,47 +1502,47 @@
         <v>2</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1539,28 +1550,28 @@
         <v>3</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1568,7 +1579,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1576,7 +1587,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1584,18 +1595,18 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,57 +1619,65 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
         <v>1</v>
       </c>
     </row>
